--- a/medicine/Enfance/Sandra_Amani/Sandra_Amani.xlsx
+++ b/medicine/Enfance/Sandra_Amani/Sandra_Amani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandra Amani est une écrivain française née à Paris le 1er juillet 1966.
 Après avoir écrit trois romans fantastiques pour la jeunesse, elle a connu le succès avec Légendes du Morvan. Depuis, elle a écrit de nombreux ouvrages sur les légendes de Bourgogne.
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle grandit dans le Morvan avec ses grands-parents[1]. Elle est diplômée de l'université de Dijon et devient professeur de français avant de se tourner vers l'écriture. Elle continue d'exercer son métier à Chablis dans l'Yonne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle grandit dans le Morvan avec ses grands-parents. Elle est diplômée de l'université de Dijon et devient professeur de français avant de se tourner vers l'écriture. Elle continue d'exercer son métier à Chablis dans l'Yonne.
 De 2001 à 2006, Sandra Amani publie trois romans fantastiques destinés à la jeunesse. Puis de 2007 à 2009, trois ouvrages rapportant des légendes de Bourgogne, plus particulièrement de la région naturelle du Morvan.
-En 2010, elle écrit Les Mystères du Nivernais, puis en 2011, elle scénarise les Légendes du Morvan pour leur parution en bande dessinée[3].
+En 2010, elle écrit Les Mystères du Nivernais, puis en 2011, elle scénarise les Légendes du Morvan pour leur parution en bande dessinée.
 En 2017, elle revient à la fiction avec Les Chemins du mystère. L'audience de ses ouvrages concerne surtout les Bourguignons qui vivent au pays ou exilés.
-Elle anime régulièrement sur France Bleu Bourgogne une rubrique sur la littérature régionale[4].
+Elle anime régulièrement sur France Bleu Bourgogne une rubrique sur la littérature régionale.
 </t>
         </is>
       </c>
